--- a/data/evaluation/evaluation_Center_Winter_Cauliflower.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Cauliflower.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3606.681818181818</v>
+        <v>3587.590909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>18564364.20454545</v>
+        <v>18351500.56818182</v>
       </c>
       <c r="D3" t="n">
-        <v>4308.638323710341</v>
+        <v>4283.865143556905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7064259510249522</v>
+        <v>0.7097921443897388</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3111.169301784075</v>
+        <v>3011.419938672439</v>
       </c>
       <c r="C4" t="n">
-        <v>13552668.81288949</v>
+        <v>13648966.7799457</v>
       </c>
       <c r="D4" t="n">
-        <v>3681.394954754175</v>
+        <v>3694.450808976309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7856801442818255</v>
+        <v>0.7841573027890997</v>
       </c>
     </row>
     <row r="5">
